--- a/src/test/java/com/eBanking/testData/TestData.xlsx
+++ b/src/test/java/com/eBanking/testData/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -26,24 +26,6 @@
   </si>
   <si>
     <t>veqYmeb</t>
-  </si>
-  <si>
-    <t>mngr517132</t>
-  </si>
-  <si>
-    <t>mngr517133</t>
-  </si>
-  <si>
-    <t>mngr517134</t>
-  </si>
-  <si>
-    <t>veqYmec</t>
-  </si>
-  <si>
-    <t>veqYmed</t>
-  </si>
-  <si>
-    <t>veqYmee</t>
   </si>
 </sst>
 </file>
@@ -425,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,38 +435,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
